--- a/xlsx/form_h_assinantes_at_forms.xlsx
+++ b/xlsx/form_h_assinantes_at_forms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Terra_Share\projects\CaVaTeCo_Collect\projects\odk_forms_ilrg_madal\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\monitor_forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9C808A-C86C-49A7-A92B-976F35051866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA196BE7-59B3-4B29-92B4-077F99D8AA99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="255">
   <si>
     <t>type</t>
   </si>
@@ -520,9 +520,6 @@
   </si>
   <si>
     <t>assoc_name</t>
-  </si>
-  <si>
-    <t>Outra associação (não está na lista)</t>
   </si>
   <si>
     <t>external_id</t>
@@ -794,6 +791,9 @@
     <t>languages</t>
   </si>
   <si>
+    <t>"Novo Madal"</t>
+  </si>
+  <si>
     <t>search('enum_names_madal')</t>
   </si>
   <si>
@@ -801,9 +801,6 @@
   </si>
   <si>
     <t>http://cavateco.terrafirma.co.mz:8080/madal/submission</t>
-  </si>
-  <si>
-    <t>"Novo Madal"</t>
   </si>
 </sst>
 </file>
@@ -2034,7 +2031,7 @@
   <dimension ref="A1:S79"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="L64" sqref="L64"/>
@@ -2101,7 +2098,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>11</v>
@@ -2110,7 +2107,7 @@
         <v>12</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>13</v>
@@ -2119,7 +2116,7 @@
         <v>32</v>
       </c>
       <c r="S1" s="49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -2146,10 +2143,10 @@
         <v>86</v>
       </c>
       <c r="B5" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="N5" s="39" t="s">
         <v>164</v>
-      </c>
-      <c r="N5" s="39" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -2157,10 +2154,10 @@
         <v>86</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N6" s="52" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -2179,7 +2176,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C8" s="2"/>
       <c r="L8" s="23" t="s">
@@ -2194,7 +2191,7 @@
         <v>96</v>
       </c>
       <c r="O9" s="52" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P9" s="39"/>
     </row>
@@ -2206,7 +2203,7 @@
         <v>97</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -2223,7 +2220,7 @@
         <v>41</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -2248,13 +2245,13 @@
         <v>23</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>100</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L14" s="23" t="s">
         <v>29</v>
@@ -2376,7 +2373,7 @@
     </row>
     <row r="22" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>88</v>
@@ -2430,24 +2427,24 @@
         <v>40</v>
       </c>
       <c r="B25" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" s="54" t="s">
         <v>215</v>
-      </c>
-      <c r="C25" s="54" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="B26" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="C26" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="C26" s="54" t="s">
-        <v>219</v>
-      </c>
       <c r="D26" s="50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -2455,16 +2452,16 @@
         <v>27</v>
       </c>
       <c r="B27" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="G27" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="G27" s="55" t="s">
+      <c r="P27" s="55" t="s">
         <v>222</v>
-      </c>
-      <c r="P27" s="55" t="s">
-        <v>223</v>
       </c>
       <c r="Q27" s="55"/>
       <c r="R27" s="55"/>
@@ -2477,16 +2474,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="G28" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="C28" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="G28" s="55" t="s">
+      <c r="P28" s="55" t="s">
         <v>225</v>
-      </c>
-      <c r="P28" s="55" t="s">
-        <v>226</v>
       </c>
       <c r="Q28" s="55"/>
       <c r="R28" s="55"/>
@@ -2499,16 +2496,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="G29" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="C29" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="G29" s="55" t="s">
+      <c r="P29" s="55" t="s">
         <v>228</v>
-      </c>
-      <c r="P29" s="55" t="s">
-        <v>229</v>
       </c>
       <c r="Q29" s="55"/>
       <c r="R29" s="55"/>
@@ -2521,16 +2518,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="G30" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="C30" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="G30" s="55" t="s">
+      <c r="P30" s="55" t="s">
         <v>231</v>
-      </c>
-      <c r="P30" s="55" t="s">
-        <v>232</v>
       </c>
       <c r="Q30" s="55"/>
       <c r="R30" s="55"/>
@@ -2543,16 +2540,16 @@
         <v>27</v>
       </c>
       <c r="B31" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="G31" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="C31" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="G31" s="55" t="s">
-        <v>234</v>
-      </c>
       <c r="P31" s="55" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q31" s="55"/>
       <c r="R31" s="55"/>
@@ -2565,16 +2562,16 @@
         <v>27</v>
       </c>
       <c r="B32" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="G32" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="C32" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="G32" s="55" t="s">
-        <v>236</v>
-      </c>
       <c r="P32" s="55" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q32" s="55"/>
       <c r="R32" s="55"/>
@@ -2587,16 +2584,16 @@
         <v>27</v>
       </c>
       <c r="B33" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="G33" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="C33" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="G33" s="55" t="s">
-        <v>238</v>
-      </c>
       <c r="P33" s="55" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q33" s="55"/>
       <c r="R33" s="55"/>
@@ -2609,16 +2606,16 @@
         <v>27</v>
       </c>
       <c r="B34" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="C34" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="G34" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="C34" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="G34" s="55" t="s">
-        <v>240</v>
-      </c>
       <c r="P34" s="55" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q34" s="55"/>
       <c r="R34" s="55"/>
@@ -2631,16 +2628,16 @@
         <v>27</v>
       </c>
       <c r="B35" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="C35" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="G35" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="C35" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="G35" s="55" t="s">
-        <v>242</v>
-      </c>
       <c r="P35" s="55" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q35" s="55"/>
       <c r="R35" s="55"/>
@@ -2653,16 +2650,16 @@
         <v>27</v>
       </c>
       <c r="B36" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="C36" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="G36" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="C36" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="G36" s="55" t="s">
-        <v>244</v>
-      </c>
       <c r="P36" s="55" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q36" s="55"/>
       <c r="R36" s="55"/>
@@ -2675,16 +2672,16 @@
         <v>27</v>
       </c>
       <c r="B37" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="C37" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="G37" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="C37" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="G37" s="55" t="s">
-        <v>246</v>
-      </c>
       <c r="P37" s="55" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q37" s="55"/>
       <c r="R37" s="55"/>
@@ -2697,16 +2694,16 @@
         <v>27</v>
       </c>
       <c r="B38" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="C38" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="G38" s="55" t="s">
         <v>247</v>
       </c>
-      <c r="C38" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="G38" s="55" t="s">
-        <v>248</v>
-      </c>
       <c r="P38" s="55" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q38" s="55"/>
       <c r="R38" s="55"/>
@@ -2722,7 +2719,7 @@
         <v>33</v>
       </c>
       <c r="C39" s="50" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J39" s="50" t="s">
         <v>22</v>
@@ -2731,7 +2728,7 @@
         <v>33</v>
       </c>
       <c r="M39" s="57" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2739,7 +2736,7 @@
         <v>23</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>45</v>
@@ -2778,7 +2775,7 @@
     </row>
     <row r="43" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B43" s="29" t="s">
         <v>146</v>
@@ -2787,7 +2784,7 @@
         <v>120</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J43" s="12" t="s">
         <v>22</v>
@@ -2804,7 +2801,7 @@
     </row>
     <row r="45" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B45" s="29" t="s">
         <v>110</v>
@@ -2813,7 +2810,7 @@
         <v>111</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J45" s="23" t="s">
         <v>22</v>
@@ -2841,7 +2838,7 @@
     </row>
     <row r="47" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B47" s="29" t="s">
         <v>115</v>
@@ -2850,7 +2847,7 @@
         <v>116</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G47" s="23" t="s">
         <v>117</v>
@@ -2864,7 +2861,7 @@
         <v>23</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>49</v>
@@ -2875,7 +2872,7 @@
     </row>
     <row r="49" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B49" s="29" t="s">
         <v>121</v>
@@ -2884,7 +2881,7 @@
         <v>46</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J49" s="23" t="s">
         <v>22</v>
@@ -2957,7 +2954,7 @@
     </row>
     <row r="54" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B54" s="29" t="s">
         <v>132</v>
@@ -2966,7 +2963,7 @@
         <v>133</v>
       </c>
       <c r="D54" s="39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -3077,7 +3074,7 @@
         <v>158</v>
       </c>
       <c r="C63" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D63" s="39"/>
       <c r="J63" s="23" t="s">
@@ -3092,7 +3089,7 @@
         <v>23</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>49</v>
@@ -3103,7 +3100,7 @@
     </row>
     <row r="65" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B65" s="29" t="s">
         <v>121</v>
@@ -3112,7 +3109,7 @@
         <v>46</v>
       </c>
       <c r="D65" s="39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J65" s="23" t="s">
         <v>22</v>
@@ -3185,7 +3182,7 @@
     </row>
     <row r="70" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B70" s="29" t="s">
         <v>132</v>
@@ -3194,7 +3191,7 @@
         <v>133</v>
       </c>
       <c r="D70" s="39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -3315,11 +3312,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3486,15 +3483,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="38">
-        <v>1</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>163</v>
-      </c>
+      <c r="A16" s="36"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="36"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="36"/>
@@ -3506,10 +3497,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="36" t="s">
         <v>177</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3520,7 +3511,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3567,7 +3558,7 @@
         <v>92</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -6651,25 +6642,25 @@
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B584" s="43"/>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B585" s="43"/>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B586" s="43"/>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B587" s="43"/>
     </row>
@@ -6678,19 +6669,19 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B589" s="43"/>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B590" s="43"/>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B591" s="43"/>
     </row>
@@ -6825,31 +6816,31 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B616" s="43"/>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B617" s="43"/>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B618" s="43"/>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B619" s="43"/>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B620" s="43"/>
     </row>
@@ -6858,131 +6849,131 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B622" s="43"/>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B623" s="43"/>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B626" s="43"/>
       <c r="C626" s="44"/>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B627" s="43"/>
       <c r="C627" s="44"/>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B628" s="43"/>
       <c r="C628" s="44"/>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B629" s="43"/>
       <c r="C629" s="44"/>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B630" s="43"/>
       <c r="C630" s="44"/>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B631" s="43"/>
       <c r="C631" s="44"/>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B632" s="43"/>
       <c r="C632" s="44"/>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B633" s="43"/>
       <c r="C633" s="44"/>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B634" s="43"/>
       <c r="C634" s="44"/>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B635" s="43"/>
       <c r="C635" s="44"/>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B636" s="43"/>
       <c r="C636" s="44"/>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B637" s="43"/>
       <c r="C637" s="44"/>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B638" s="43"/>
       <c r="C638" s="44"/>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B639" s="43"/>
       <c r="C639" s="44"/>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B640" s="43"/>
       <c r="C640" s="44"/>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B641" s="43"/>
       <c r="C641" s="44"/>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B642" s="43"/>
       <c r="C642" s="44"/>
@@ -6994,168 +6985,168 @@
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" s="44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B644" s="45"/>
       <c r="C644" s="44"/>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" s="44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B645" s="45"/>
       <c r="C645" s="44"/>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B647" s="43"/>
       <c r="C647" s="44"/>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B648" s="43"/>
       <c r="C648" s="44"/>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B649" s="43"/>
       <c r="C649" s="44"/>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B650" s="43"/>
       <c r="C650" s="44"/>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B651" s="43"/>
       <c r="C651" s="44"/>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B652" s="43"/>
       <c r="C652" s="44"/>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B653" s="43"/>
       <c r="C653" s="44"/>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B654" s="43"/>
       <c r="C654" s="44"/>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B655" s="43"/>
       <c r="C655" s="44"/>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B656" s="43"/>
       <c r="C656" s="44"/>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B657" s="43"/>
       <c r="C657" s="44"/>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B658" s="43"/>
       <c r="C658" s="44"/>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B659" s="43"/>
       <c r="C659" s="44"/>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B660" s="43"/>
       <c r="C660" s="44"/>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B661" s="43"/>
       <c r="C661" s="44"/>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B662" s="43"/>
       <c r="C662" s="44"/>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B663" s="43"/>
       <c r="C663" s="44"/>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B664" s="43"/>
       <c r="C664" s="44"/>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B665" s="43"/>
       <c r="C665" s="44"/>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" s="44" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B668" s="43"/>
       <c r="C668" s="44"/>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" s="44" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B669" s="43"/>
       <c r="C669" s="44"/>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" s="44" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B670" s="43"/>
       <c r="C670" s="44"/>
@@ -7172,483 +7163,483 @@
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" s="44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B673" s="43"/>
       <c r="C673" s="44"/>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" s="44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B674" s="43"/>
       <c r="C674" s="44"/>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" s="44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B675" s="43"/>
       <c r="C675" s="44"/>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" s="44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B676" s="43"/>
       <c r="C676" s="44"/>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" s="44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B677" s="43"/>
       <c r="C677" s="44"/>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" s="44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B678" s="43"/>
       <c r="C678" s="44"/>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" s="44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B679" s="43"/>
       <c r="C679" s="44"/>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" s="44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B680" s="43"/>
       <c r="C680" s="44"/>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" s="44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B681" s="43"/>
       <c r="C681" s="44"/>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" s="44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B682" s="43"/>
       <c r="C682" s="44"/>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B684" s="43"/>
       <c r="C684" s="44"/>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B685" s="43"/>
       <c r="C685" s="44"/>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B686" s="43"/>
       <c r="C686" s="44"/>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B687" s="43"/>
       <c r="C687" s="44"/>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B688" s="43"/>
       <c r="C688" s="44"/>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B689" s="43"/>
       <c r="C689" s="44"/>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B690" s="43"/>
       <c r="C690" s="44"/>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B691" s="43"/>
       <c r="C691" s="44"/>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B692" s="43"/>
       <c r="C692" s="44"/>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B693" s="43"/>
       <c r="C693" s="44"/>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B694" s="43"/>
       <c r="C694" s="44"/>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B696" s="43"/>
       <c r="C696" s="44"/>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B697" s="43"/>
       <c r="C697" s="44"/>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B698" s="43"/>
       <c r="C698" s="44"/>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B699" s="43"/>
       <c r="C699" s="44"/>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B700" s="43"/>
       <c r="C700" s="44"/>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B701" s="43"/>
       <c r="C701" s="44"/>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B702" s="43"/>
       <c r="C702" s="44"/>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B703" s="43"/>
       <c r="C703" s="44"/>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B704" s="43"/>
       <c r="C704" s="44"/>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B705" s="43"/>
       <c r="C705" s="44"/>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B706" s="43"/>
       <c r="C706" s="44"/>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B707" s="43"/>
       <c r="C707" s="44"/>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" s="44" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B709" s="43"/>
       <c r="C709" s="44"/>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" s="44" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B710" s="43"/>
       <c r="C710" s="44"/>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" s="44" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B711" s="43"/>
       <c r="C711" s="44"/>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" s="44" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B712" s="43"/>
       <c r="C712" s="44"/>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B714" s="43"/>
       <c r="C714" s="44"/>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B715" s="43"/>
       <c r="C715" s="44"/>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B716" s="43"/>
       <c r="C716" s="44"/>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B717" s="43"/>
       <c r="C717" s="44"/>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B718" s="43"/>
       <c r="C718" s="44"/>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B719" s="43"/>
       <c r="C719" s="44"/>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B720" s="43"/>
       <c r="C720" s="44"/>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B721" s="43"/>
       <c r="C721" s="44"/>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B722" s="43"/>
       <c r="C722" s="44"/>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B723" s="43"/>
       <c r="C723" s="44"/>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B724" s="43"/>
       <c r="C724" s="44"/>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B725" s="43"/>
       <c r="C725" s="44"/>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B726" s="43"/>
       <c r="C726" s="44"/>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B727" s="43"/>
       <c r="C727" s="44"/>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B728" s="43"/>
       <c r="C728" s="44"/>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B729" s="43"/>
       <c r="C729" s="44"/>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B730" s="43"/>
       <c r="C730" s="44"/>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B731" s="43"/>
       <c r="C731" s="44"/>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B732" s="43"/>
       <c r="C732" s="44"/>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B733" s="43"/>
       <c r="C733" s="44"/>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B734" s="43"/>
       <c r="C734" s="44"/>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B735" s="43"/>
       <c r="C735" s="44"/>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B736" s="43"/>
       <c r="C736" s="44"/>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B737" s="43"/>
       <c r="C737" s="44"/>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B738" s="43"/>
       <c r="C738" s="44"/>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B739" s="43"/>
       <c r="C739" s="44"/>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B740" s="43"/>
       <c r="C740" s="44"/>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" s="44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B742" s="43"/>
       <c r="C742" s="44"/>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743" s="44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B743" s="43"/>
       <c r="C743" s="44"/>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744" s="44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B744" s="43"/>
       <c r="C744" s="44"/>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" s="44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B745" s="43"/>
       <c r="C745" s="44"/>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746" s="44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B746" s="43"/>
       <c r="C746" s="44"/>
@@ -7660,63 +7651,63 @@
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748" s="44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B748" s="43"/>
       <c r="C748" s="44"/>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749" s="44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B749" s="43"/>
       <c r="C749" s="44"/>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750" s="44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B750" s="43"/>
       <c r="C750" s="44"/>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751" s="44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B751" s="43"/>
       <c r="C751" s="44"/>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752" s="44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B752" s="43"/>
       <c r="C752" s="44"/>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753" s="44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B753" s="43"/>
       <c r="C753" s="44"/>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754" s="44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B754" s="43"/>
       <c r="C754" s="44"/>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755" s="44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B755" s="43"/>
       <c r="C755" s="44"/>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" s="44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B756" s="43"/>
       <c r="C756" s="44"/>
@@ -7728,112 +7719,112 @@
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" s="44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B758" s="43"/>
       <c r="C758" s="44"/>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759" s="44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B759" s="43"/>
       <c r="C759" s="44"/>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760" s="44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B760" s="43"/>
       <c r="C760" s="44"/>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761" s="44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B761" s="43"/>
       <c r="C761" s="44"/>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762" s="44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B762" s="43"/>
       <c r="C762" s="44"/>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A763" s="44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B763" s="43"/>
       <c r="C763" s="44"/>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764" s="44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B764" s="43"/>
       <c r="C764" s="44"/>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765" s="44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B765" s="43"/>
       <c r="C765" s="44"/>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766" s="44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B766" s="43"/>
       <c r="C766" s="44"/>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A767" s="44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B767" s="43"/>
       <c r="C767" s="44"/>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A768" s="44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B768" s="43"/>
       <c r="C768" s="44"/>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A769" s="44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B769" s="43"/>
       <c r="C769" s="44"/>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A770" s="44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B770" s="43"/>
       <c r="C770" s="44"/>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A771" s="44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B771" s="43"/>
       <c r="C771" s="44"/>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A772" s="44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B772" s="43"/>
       <c r="C772" s="44"/>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A773" s="44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B773" s="43"/>
       <c r="C773" s="44"/>
@@ -7845,147 +7836,147 @@
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A775" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B775" s="43"/>
       <c r="C775" s="44"/>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A776" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B776" s="43"/>
       <c r="C776" s="44"/>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A777" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B777" s="43"/>
       <c r="C777" s="44"/>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A778" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B778" s="43"/>
       <c r="C778" s="44"/>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A779" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B779" s="43"/>
       <c r="C779" s="44"/>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A780" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B780" s="43"/>
       <c r="C780" s="44"/>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A781" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B781" s="43"/>
       <c r="C781" s="44"/>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A782" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B782" s="43"/>
       <c r="C782" s="44"/>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A783" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B783" s="43"/>
       <c r="C783" s="44"/>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A784" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B784" s="43"/>
       <c r="C784" s="44"/>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A785" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B785" s="43"/>
       <c r="C785" s="44"/>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A786" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B786" s="43"/>
       <c r="C786" s="44"/>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A787" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B787" s="43"/>
       <c r="C787" s="44"/>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A788" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B788" s="43"/>
       <c r="C788" s="44"/>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A789" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B789" s="43"/>
       <c r="C789" s="44"/>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A790" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B790" s="43"/>
       <c r="C790" s="44"/>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A791" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B791" s="43"/>
       <c r="C791" s="44"/>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A792" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B792" s="43"/>
       <c r="C792" s="44"/>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A793" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B793" s="43"/>
       <c r="C793" s="44"/>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A794" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B794" s="43"/>
       <c r="C794" s="44"/>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A795" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B795" s="43"/>
       <c r="C795" s="44"/>
@@ -7997,14 +7988,14 @@
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A797" s="44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B797" s="43"/>
       <c r="C797" s="44"/>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A798" s="44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B798" s="43"/>
       <c r="C798" s="44"/>
@@ -8016,21 +8007,21 @@
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A800" s="44" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B800" s="43"/>
       <c r="C800" s="44"/>
     </row>
     <row r="801" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A801" s="44" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B801" s="43"/>
       <c r="C801" s="44"/>
     </row>
     <row r="803" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A803" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B803" s="43"/>
       <c r="C803" s="44"/>
@@ -8040,7 +8031,7 @@
     </row>
     <row r="804" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A804" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B804" s="43"/>
       <c r="C804" s="44"/>
@@ -8050,7 +8041,7 @@
     </row>
     <row r="805" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A805" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B805" s="43"/>
       <c r="C805" s="44"/>
@@ -8060,7 +8051,7 @@
     </row>
     <row r="806" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A806" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B806" s="43"/>
       <c r="C806" s="44"/>
@@ -8070,7 +8061,7 @@
     </row>
     <row r="807" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A807" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B807" s="43"/>
       <c r="C807" s="44"/>
@@ -8080,7 +8071,7 @@
     </row>
     <row r="808" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A808" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B808" s="43"/>
       <c r="C808" s="44"/>
@@ -8090,7 +8081,7 @@
     </row>
     <row r="809" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A809" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B809" s="43"/>
       <c r="C809" s="44"/>
@@ -8100,7 +8091,7 @@
     </row>
     <row r="810" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A810" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B810" s="43"/>
       <c r="C810" s="44"/>
@@ -8110,7 +8101,7 @@
     </row>
     <row r="811" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A811" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B811" s="43"/>
       <c r="C811" s="44"/>
@@ -8120,7 +8111,7 @@
     </row>
     <row r="812" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A812" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B812" s="43"/>
       <c r="C812" s="44"/>
@@ -8130,194 +8121,194 @@
     </row>
     <row r="814" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A814" s="41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B814" s="43"/>
       <c r="C814" s="44"/>
     </row>
     <row r="815" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A815" s="41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B815" s="43"/>
       <c r="C815" s="44"/>
     </row>
     <row r="816" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A816" s="41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B816" s="43"/>
       <c r="C816" s="44"/>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A817" s="41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B817" s="43"/>
       <c r="C817" s="44"/>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A818" s="41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B818" s="43"/>
       <c r="C818" s="44"/>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A819" s="41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B819" s="43"/>
       <c r="C819" s="44"/>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A820" s="41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B820" s="43"/>
       <c r="C820" s="44"/>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A822" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B822" s="43"/>
       <c r="C822" s="44"/>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A823" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B823" s="43"/>
       <c r="C823" s="44"/>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A824" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B824" s="43"/>
       <c r="C824" s="44"/>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A825" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B825" s="43"/>
       <c r="C825" s="44"/>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A826" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B826" s="43"/>
       <c r="C826" s="44"/>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A828" s="41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B828" s="43"/>
       <c r="C828" s="46"/>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A829" s="41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B829" s="43"/>
       <c r="C829" s="44"/>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A830" s="41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B830" s="43"/>
       <c r="C830" s="44"/>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A831" s="41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B831" s="43"/>
       <c r="C831" s="44"/>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A832" s="41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B832" s="43"/>
       <c r="C832" s="44"/>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A833" s="41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B833" s="43"/>
       <c r="C833" s="44"/>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A834" s="41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B834" s="43"/>
       <c r="C834" s="44"/>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A835" s="44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B835" s="43"/>
       <c r="C835" s="44"/>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A837" s="41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B837" s="43"/>
       <c r="C837" s="46"/>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A838" s="41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B838" s="43"/>
       <c r="C838" s="44"/>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A839" s="41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B839" s="43"/>
       <c r="C839" s="44"/>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A840" s="41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B840" s="43"/>
       <c r="C840" s="44"/>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A842" s="44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B842" s="43"/>
       <c r="C842" s="44"/>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A843" s="44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B843" s="43"/>
       <c r="C843" s="44"/>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A845" s="58" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A846" s="58" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -8330,15 +8321,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="36.5" style="3" customWidth="1"/>
-    <col min="3" max="4" width="15.875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="50.875" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.5" style="3" customWidth="1"/>
     <col min="6" max="16384" width="11" style="3"/>
   </cols>
@@ -8354,7 +8346,7 @@
         <v>52</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>25</v>
@@ -8368,7 +8360,7 @@
         <v>160</v>
       </c>
       <c r="C2" s="47">
-        <v>202009221</v>
+        <v>202101081</v>
       </c>
       <c r="D2" s="48" t="s">
         <v>254</v>

--- a/xlsx/form_h_assinantes_at_forms.xlsx
+++ b/xlsx/form_h_assinantes_at_forms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\monitor_forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\odk_forms_ilrg_madal\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA196BE7-59B3-4B29-92B4-077F99D8AA99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5B3302-E5E9-4334-BA93-B0B11BB5AFDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="256">
   <si>
     <t>type</t>
   </si>
@@ -801,15 +801,25 @@
   </si>
   <si>
     <t>http://cavateco.terrafirma.co.mz:8080/madal/submission</t>
+  </si>
+  <si>
+    <t>consent_chuabo.mp3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1067,382 +1077,385 @@
   </borders>
   <cellStyleXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="242" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="242" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="242" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="242" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="246"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="246" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="246"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="246" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="246" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="246" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="245" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="245" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="246" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="246" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="247">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2031,10 +2044,10 @@
   <dimension ref="A1:S79"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L64" sqref="L64"/>
+      <selection pane="bottomRight" activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2548,8 +2561,8 @@
       <c r="G31" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="P31" s="55" t="s">
-        <v>228</v>
+      <c r="P31" s="60" t="s">
+        <v>255</v>
       </c>
       <c r="Q31" s="55"/>
       <c r="R31" s="55"/>
@@ -3312,7 +3325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -8321,8 +8334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8360,7 +8373,7 @@
         <v>160</v>
       </c>
       <c r="C2" s="47">
-        <v>202101081</v>
+        <v>2021020801</v>
       </c>
       <c r="D2" s="48" t="s">
         <v>254</v>
